--- a/programs/frameworks/openai/files/du_schedule.xlsx
+++ b/programs/frameworks/openai/files/du_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\objec\Documents\Code\objeck-lang\programs\frameworks\openai\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA576D-0693-479D-9095-4E2199B75736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9E6828-1BCE-4CFF-8050-C8EFB59CDA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="4670" windowWidth="22140" windowHeight="13470" activeTab="1" xr2:uid="{F7BF0BA8-9380-4527-9162-F86ABEF70958}"/>
+    <workbookView xWindow="14230" yWindow="4640" windowWidth="16470" windowHeight="12630" xr2:uid="{F7BF0BA8-9380-4527-9162-F86ABEF70958}"/>
   </bookViews>
   <sheets>
     <sheet name="du_schedule_1967" sheetId="2" r:id="rId1"/>
@@ -274,7 +274,7 @@
     <t>New Mexico (7)</t>
   </si>
   <si>
-    <t xml:space="preserve"> At</t>
+    <t>At</t>
   </si>
 </sst>
 </file>
@@ -392,7 +392,7 @@
     <tableColumn id="1" xr3:uid="{5E7DDE5A-2286-4750-8413-C10ED343D368}" uniqueName="1" name="G" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{7D76B80F-BD9C-403C-9C80-D7E829DEBB7A}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{F4D70700-0602-41C4-8B0F-C17108F32F09}" uniqueName="3" name="Type" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{DF5C762B-D45A-4A22-A4B7-1E634FE529D8}" uniqueName="4" name=" At" queryTableFieldId="4"/>
+    <tableColumn id="4" xr3:uid="{DF5C762B-D45A-4A22-A4B7-1E634FE529D8}" uniqueName="4" name="At" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{E2699DEA-E07D-4308-90C1-B14229604A47}" uniqueName="5" name="Opponent" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{76287D0A-D98D-4D5F-88FE-80FAC357691B}" uniqueName="6" name="Conf" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{7ACC5D1B-BF41-43E2-AE1E-40199CAB1431}" uniqueName="7" name="SRS" queryTableFieldId="7"/>
@@ -416,7 +416,7 @@
     <tableColumn id="1" xr3:uid="{226B4311-D776-46EF-8BE4-D4102F046366}" uniqueName="1" name="G" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{15D361FA-CC64-44AA-BA43-04409CCA660F}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{F5992CFB-32DA-4C80-8A1F-698B9A246EB9}" uniqueName="3" name="Type" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{806ECC95-17A6-4997-85E7-12D348E2DB4B}" uniqueName="4" name=" At" queryTableFieldId="4"/>
+    <tableColumn id="4" xr3:uid="{806ECC95-17A6-4997-85E7-12D348E2DB4B}" uniqueName="4" name="At" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{49FE1ACE-F66B-4195-9344-AD32F6A23872}" uniqueName="5" name="Opponent" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{F6EBEE0B-9771-4E11-A90A-4E3138A29BD4}" uniqueName="6" name="Conf" queryTableFieldId="6"/>
     <tableColumn id="7" xr3:uid="{ABFADA61-0A4F-4DDE-B073-8F610948E84A}" uniqueName="7" name="SRS" queryTableFieldId="7"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABB2A3E-77AC-4633-9F77-F713AF160649}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E219F8A-BCA1-45ED-ABC7-8D5E89869366}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
